--- a/files/tabel/tabel-2018-06.xlsx
+++ b/files/tabel/tabel-2018-06.xlsx
@@ -228,7 +228,10 @@
     <t>ИЮНЯ</t>
   </si>
   <si>
-    <t>20/06/2018</t>
+    <t>22/06/2018</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>июня</t>
@@ -420,9 +423,6 @@
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -593,7 +593,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="137">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +661,616 @@
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="14"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="16"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="18"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="19"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="20"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="25"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="28"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="28"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="37"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="37"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="58"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="58"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="61"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="61"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1696,7 +2306,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5567">
+  <cellXfs count="5632">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -18834,6 +19444,71 @@
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="false"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -19142,7 +19817,7 @@
     <tabColor indexed="48"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CV81"/>
+  <dimension ref="A1:CV101"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" zoomScale="119" zoomScaleNormal="119">
       <selection activeCell="DL16" sqref="DL16"/>
@@ -20169,7 +20844,7 @@
       </c>
       <c r="CK15" s="98"/>
       <c r="CL15" s="97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CM15" s="98"/>
       <c r="CN15" s="97" t="s">
@@ -20467,7 +21142,7 @@
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -20481,19 +21156,19 @@
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P18" s="68"/>
       <c r="Q18" s="68"/>
       <c r="R18" s="69"/>
       <c r="S18" s="67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" s="68"/>
       <c r="U18" s="68"/>
       <c r="V18" s="69"/>
       <c r="W18" s="67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X18" s="68"/>
       <c r="Y18" s="68"/>
@@ -20502,135 +21177,135 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="69"/>
       <c r="AD18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE18" s="61"/>
       <c r="AF18" s="5279" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG18" s="61"/>
       <c r="AH18" s="5280" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI18" s="61"/>
       <c r="AJ18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" s="61"/>
       <c r="AL18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM18" s="61"/>
       <c r="AN18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO18" s="61"/>
       <c r="AP18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ18" s="61"/>
       <c r="AR18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS18" s="61"/>
       <c r="AT18" s="5281" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU18" s="61"/>
       <c r="AV18" s="5282" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW18" s="61"/>
       <c r="AX18" s="5283" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY18" s="61"/>
       <c r="AZ18" s="5284" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA18" s="61"/>
       <c r="BB18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC18" s="61"/>
       <c r="BD18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE18" s="61"/>
       <c r="BF18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG18" s="61"/>
       <c r="BH18" s="62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI18" s="62"/>
       <c r="BJ18" s="62"/>
       <c r="BK18" s="62"/>
       <c r="BL18" s="5285" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM18" s="61"/>
       <c r="BN18" s="5286" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO18" s="61"/>
       <c r="BP18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ18" s="61"/>
       <c r="BR18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS18" s="61"/>
       <c r="BT18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU18" s="61"/>
       <c r="BV18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW18" s="61"/>
       <c r="BX18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY18" s="61"/>
       <c r="BZ18" s="5287" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA18" s="61"/>
       <c r="CB18" s="5288" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC18" s="61"/>
       <c r="CD18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE18" s="61"/>
       <c r="CF18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG18" s="61"/>
       <c r="CH18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI18" s="61"/>
       <c r="CJ18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK18" s="61"/>
       <c r="CL18" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM18" s="61"/>
       <c r="CN18" s="5289" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO18" s="61"/>
       <c r="CP18" s="61"/>
       <c r="CQ18" s="61"/>
       <c r="CR18" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS18" s="62"/>
       <c r="CT18" s="62"/>
@@ -20671,11 +21346,11 @@
       </c>
       <c r="AE19" s="61"/>
       <c r="AF19" s="5279" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG19" s="61"/>
       <c r="AH19" s="5280" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI19" s="61"/>
       <c r="AJ19" s="61" t="n">
@@ -20703,15 +21378,15 @@
       </c>
       <c r="AU19" s="61"/>
       <c r="AV19" s="5282" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW19" s="61"/>
       <c r="AX19" s="5283" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY19" s="61"/>
       <c r="AZ19" s="5284" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA19" s="61"/>
       <c r="BB19" s="61" t="n">
@@ -20731,11 +21406,11 @@
       <c r="BJ19" s="62"/>
       <c r="BK19" s="62"/>
       <c r="BL19" s="5285" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM19" s="61"/>
       <c r="BN19" s="5286" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO19" s="61"/>
       <c r="BP19" s="61" t="n">
@@ -20759,11 +21434,11 @@
       </c>
       <c r="BY19" s="61"/>
       <c r="BZ19" s="5287" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA19" s="61"/>
       <c r="CB19" s="5288" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC19" s="61"/>
       <c r="CD19" s="61" t="n">
@@ -20787,7 +21462,7 @@
       </c>
       <c r="CM19" s="61"/>
       <c r="CN19" s="5289" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO19" s="61"/>
       <c r="CP19" s="61"/>
@@ -20803,7 +21478,7 @@
       </c>
       <c r="B20" s="132"/>
       <c r="C20" s="133" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="134"/>
       <c r="E20" s="135"/>
@@ -20817,19 +21492,19 @@
       <c r="M20" s="143"/>
       <c r="N20" s="144"/>
       <c r="O20" s="145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P20" s="146"/>
       <c r="Q20" s="147"/>
       <c r="R20" s="148"/>
       <c r="S20" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T20" s="150"/>
       <c r="U20" s="151"/>
       <c r="V20" s="152"/>
       <c r="W20" s="153" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X20" s="154"/>
       <c r="Y20" s="155"/>
@@ -20838,135 +21513,135 @@
       <c r="AB20" s="158"/>
       <c r="AC20" s="159"/>
       <c r="AD20" s="160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE20" s="161"/>
       <c r="AF20" s="5290" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG20" s="163"/>
       <c r="AH20" s="5291" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI20" s="165"/>
       <c r="AJ20" s="166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK20" s="167"/>
       <c r="AL20" s="168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM20" s="169"/>
       <c r="AN20" s="170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO20" s="171"/>
       <c r="AP20" s="172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ20" s="173"/>
       <c r="AR20" s="174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS20" s="175"/>
       <c r="AT20" s="5292" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU20" s="177"/>
       <c r="AV20" s="5293" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW20" s="179"/>
       <c r="AX20" s="5294" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY20" s="181"/>
       <c r="AZ20" s="5295" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA20" s="183"/>
       <c r="BB20" s="184" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC20" s="185"/>
       <c r="BD20" s="186" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE20" s="187"/>
       <c r="BF20" s="188" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG20" s="189"/>
       <c r="BH20" s="190" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI20" s="191"/>
       <c r="BJ20" s="192"/>
       <c r="BK20" s="193"/>
       <c r="BL20" s="5296" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM20" s="195"/>
       <c r="BN20" s="5297" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO20" s="197"/>
       <c r="BP20" s="198" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ20" s="199"/>
       <c r="BR20" s="200" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS20" s="201"/>
       <c r="BT20" s="202" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU20" s="203"/>
       <c r="BV20" s="204" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW20" s="205"/>
       <c r="BX20" s="206" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY20" s="207"/>
       <c r="BZ20" s="5298" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA20" s="209"/>
       <c r="CB20" s="5299" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC20" s="211"/>
       <c r="CD20" s="212" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE20" s="213"/>
       <c r="CF20" s="214" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG20" s="215"/>
       <c r="CH20" s="216" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI20" s="217"/>
       <c r="CJ20" s="218" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK20" s="219"/>
       <c r="CL20" s="220" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM20" s="221"/>
       <c r="CN20" s="5300" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO20" s="223"/>
       <c r="CP20" s="224"/>
       <c r="CQ20" s="225"/>
       <c r="CR20" s="226" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS20" s="227"/>
       <c r="CT20" s="228"/>
@@ -21007,11 +21682,11 @@
       </c>
       <c r="AE21" s="260"/>
       <c r="AF21" s="5290" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG21" s="262"/>
       <c r="AH21" s="5291" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI21" s="264"/>
       <c r="AJ21" s="265" t="n">
@@ -21039,15 +21714,15 @@
       </c>
       <c r="AU21" s="276"/>
       <c r="AV21" s="5293" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW21" s="278"/>
       <c r="AX21" s="5294" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY21" s="280"/>
       <c r="AZ21" s="5295" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA21" s="282"/>
       <c r="BB21" s="283" t="n">
@@ -21067,11 +21742,11 @@
       <c r="BJ21" s="291"/>
       <c r="BK21" s="292"/>
       <c r="BL21" s="5296" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM21" s="294"/>
       <c r="BN21" s="5297" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO21" s="296"/>
       <c r="BP21" s="297" t="n">
@@ -21095,11 +21770,11 @@
       </c>
       <c r="BY21" s="306"/>
       <c r="BZ21" s="5298" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA21" s="308"/>
       <c r="CB21" s="5299" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC21" s="310"/>
       <c r="CD21" s="311" t="n">
@@ -21123,7 +21798,7 @@
       </c>
       <c r="CM21" s="320"/>
       <c r="CN21" s="5300" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO21" s="322"/>
       <c r="CP21" s="323"/>
@@ -21139,7 +21814,7 @@
       </c>
       <c r="B22" s="330"/>
       <c r="C22" s="331" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="332"/>
       <c r="E22" s="333"/>
@@ -21153,19 +21828,19 @@
       <c r="M22" s="341"/>
       <c r="N22" s="342"/>
       <c r="O22" s="343" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P22" s="344"/>
       <c r="Q22" s="345"/>
       <c r="R22" s="346"/>
       <c r="S22" s="347" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T22" s="348"/>
       <c r="U22" s="349"/>
       <c r="V22" s="350"/>
       <c r="W22" s="351" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X22" s="352"/>
       <c r="Y22" s="353"/>
@@ -21174,135 +21849,135 @@
       <c r="AB22" s="356"/>
       <c r="AC22" s="357"/>
       <c r="AD22" s="358" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE22" s="359"/>
       <c r="AF22" s="5301" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG22" s="361"/>
       <c r="AH22" s="5302" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI22" s="363"/>
       <c r="AJ22" s="364" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" s="365"/>
       <c r="AL22" s="366" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM22" s="367"/>
       <c r="AN22" s="368" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO22" s="369"/>
       <c r="AP22" s="370" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ22" s="371"/>
       <c r="AR22" s="372" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS22" s="373"/>
       <c r="AT22" s="5303" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU22" s="375"/>
       <c r="AV22" s="5304" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW22" s="377"/>
       <c r="AX22" s="5305" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY22" s="379"/>
       <c r="AZ22" s="5306" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA22" s="381"/>
       <c r="BB22" s="382" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC22" s="383"/>
       <c r="BD22" s="384" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE22" s="385"/>
       <c r="BF22" s="386" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG22" s="387"/>
       <c r="BH22" s="388" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI22" s="389"/>
       <c r="BJ22" s="390"/>
       <c r="BK22" s="391"/>
       <c r="BL22" s="5307" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM22" s="393"/>
       <c r="BN22" s="5308" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO22" s="395"/>
       <c r="BP22" s="396" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ22" s="397"/>
       <c r="BR22" s="398" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS22" s="399"/>
       <c r="BT22" s="400" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU22" s="401"/>
       <c r="BV22" s="402" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW22" s="403"/>
       <c r="BX22" s="404" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY22" s="405"/>
       <c r="BZ22" s="5309" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA22" s="407"/>
       <c r="CB22" s="5310" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC22" s="409"/>
       <c r="CD22" s="410" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE22" s="411"/>
       <c r="CF22" s="412" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG22" s="413"/>
       <c r="CH22" s="414" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI22" s="415"/>
       <c r="CJ22" s="416" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK22" s="417"/>
       <c r="CL22" s="418" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM22" s="419"/>
       <c r="CN22" s="5311" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO22" s="421"/>
       <c r="CP22" s="422"/>
       <c r="CQ22" s="423"/>
       <c r="CR22" s="424" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS22" s="425"/>
       <c r="CT22" s="426"/>
@@ -21343,11 +22018,11 @@
       </c>
       <c r="AE23" s="458"/>
       <c r="AF23" s="5301" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG23" s="460"/>
       <c r="AH23" s="5302" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI23" s="462"/>
       <c r="AJ23" s="463" t="n">
@@ -21375,15 +22050,15 @@
       </c>
       <c r="AU23" s="474"/>
       <c r="AV23" s="5304" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW23" s="476"/>
       <c r="AX23" s="5305" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY23" s="478"/>
       <c r="AZ23" s="5306" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA23" s="480"/>
       <c r="BB23" s="481" t="n">
@@ -21403,11 +22078,11 @@
       <c r="BJ23" s="489"/>
       <c r="BK23" s="490"/>
       <c r="BL23" s="5307" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM23" s="492"/>
       <c r="BN23" s="5308" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO23" s="494"/>
       <c r="BP23" s="495" t="n">
@@ -21431,11 +22106,11 @@
       </c>
       <c r="BY23" s="504"/>
       <c r="BZ23" s="5309" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA23" s="506"/>
       <c r="CB23" s="5310" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC23" s="508"/>
       <c r="CD23" s="509" t="n">
@@ -21459,7 +22134,7 @@
       </c>
       <c r="CM23" s="518"/>
       <c r="CN23" s="5311" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO23" s="520"/>
       <c r="CP23" s="521"/>
@@ -21475,7 +22150,7 @@
       </c>
       <c r="B24" s="528"/>
       <c r="C24" s="529" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="530"/>
       <c r="E24" s="531"/>
@@ -21489,19 +22164,19 @@
       <c r="M24" s="539"/>
       <c r="N24" s="540"/>
       <c r="O24" s="541" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P24" s="542"/>
       <c r="Q24" s="543"/>
       <c r="R24" s="544"/>
       <c r="S24" s="545" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" s="546"/>
       <c r="U24" s="547"/>
       <c r="V24" s="548"/>
       <c r="W24" s="549" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X24" s="550"/>
       <c r="Y24" s="551"/>
@@ -21510,135 +22185,135 @@
       <c r="AB24" s="554"/>
       <c r="AC24" s="555"/>
       <c r="AD24" s="5312" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE24" s="557"/>
       <c r="AF24" s="5313" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" s="559"/>
       <c r="AH24" s="5314" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI24" s="561"/>
       <c r="AJ24" s="5315" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK24" s="563"/>
       <c r="AL24" s="5316" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM24" s="565"/>
       <c r="AN24" s="5317" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO24" s="567"/>
       <c r="AP24" s="5318" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ24" s="569"/>
       <c r="AR24" s="5319" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS24" s="571"/>
       <c r="AT24" s="5320" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AU24" s="573"/>
       <c r="AV24" s="5321" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AW24" s="575"/>
       <c r="AX24" s="5322" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY24" s="577"/>
       <c r="AZ24" s="5323" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BA24" s="579"/>
       <c r="BB24" s="5324" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BC24" s="581"/>
       <c r="BD24" s="5325" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BE24" s="583"/>
       <c r="BF24" s="5326" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BG24" s="585"/>
       <c r="BH24" s="586" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI24" s="587"/>
       <c r="BJ24" s="588"/>
       <c r="BK24" s="589"/>
       <c r="BL24" s="5327" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BM24" s="591"/>
       <c r="BN24" s="5328" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BO24" s="593"/>
       <c r="BP24" s="5329" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BQ24" s="595"/>
       <c r="BR24" s="5330" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BS24" s="597"/>
       <c r="BT24" s="5331" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BU24" s="599"/>
       <c r="BV24" s="5332" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BW24" s="601"/>
       <c r="BX24" s="5333" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY24" s="603"/>
       <c r="BZ24" s="5334" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CA24" s="605"/>
       <c r="CB24" s="5335" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CC24" s="607"/>
       <c r="CD24" s="5336" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CE24" s="609"/>
       <c r="CF24" s="5337" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CG24" s="611"/>
       <c r="CH24" s="5338" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CI24" s="613"/>
       <c r="CJ24" s="5339" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CK24" s="615"/>
       <c r="CL24" s="5340" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CM24" s="617"/>
       <c r="CN24" s="5341" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CO24" s="619"/>
       <c r="CP24" s="620"/>
       <c r="CQ24" s="621"/>
       <c r="CR24" s="622" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CS24" s="623"/>
       <c r="CT24" s="624"/>
@@ -21675,63 +22350,63 @@
       <c r="AB25" s="653"/>
       <c r="AC25" s="654"/>
       <c r="AD25" s="5312" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE25" s="656"/>
       <c r="AF25" s="5313" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG25" s="658"/>
       <c r="AH25" s="5314" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI25" s="660"/>
       <c r="AJ25" s="5315" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" s="662"/>
       <c r="AL25" s="5316" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM25" s="664"/>
       <c r="AN25" s="5317" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO25" s="666"/>
       <c r="AP25" s="5318" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ25" s="668"/>
       <c r="AR25" s="5319" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS25" s="670"/>
       <c r="AT25" s="5320" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU25" s="672"/>
       <c r="AV25" s="5321" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW25" s="674"/>
       <c r="AX25" s="5322" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY25" s="676"/>
       <c r="AZ25" s="5323" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA25" s="678"/>
       <c r="BB25" s="5324" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC25" s="680"/>
       <c r="BD25" s="5325" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BE25" s="682"/>
       <c r="BF25" s="5326" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BG25" s="684"/>
       <c r="BH25" s="685"/>
@@ -21739,63 +22414,63 @@
       <c r="BJ25" s="687"/>
       <c r="BK25" s="688"/>
       <c r="BL25" s="5327" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM25" s="690"/>
       <c r="BN25" s="5328" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO25" s="692"/>
       <c r="BP25" s="5329" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ25" s="694"/>
       <c r="BR25" s="5330" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS25" s="696"/>
       <c r="BT25" s="5331" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU25" s="698"/>
       <c r="BV25" s="5332" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BW25" s="700"/>
       <c r="BX25" s="5333" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BY25" s="702"/>
       <c r="BZ25" s="5334" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA25" s="704"/>
       <c r="CB25" s="5335" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC25" s="706"/>
       <c r="CD25" s="5336" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE25" s="708"/>
       <c r="CF25" s="5337" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG25" s="710"/>
       <c r="CH25" s="5338" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI25" s="712"/>
       <c r="CJ25" s="5339" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK25" s="714"/>
       <c r="CL25" s="5340" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CM25" s="716"/>
       <c r="CN25" s="5341" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO25" s="718"/>
       <c r="CP25" s="719"/>
@@ -21811,7 +22486,7 @@
       </c>
       <c r="B26" s="726"/>
       <c r="C26" s="727" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="728"/>
       <c r="E26" s="729"/>
@@ -21825,19 +22500,19 @@
       <c r="M26" s="737"/>
       <c r="N26" s="738"/>
       <c r="O26" s="739" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P26" s="740"/>
       <c r="Q26" s="741"/>
       <c r="R26" s="742"/>
       <c r="S26" s="743" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T26" s="744"/>
       <c r="U26" s="745"/>
       <c r="V26" s="746"/>
       <c r="W26" s="747" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X26" s="748"/>
       <c r="Y26" s="749"/>
@@ -21846,135 +22521,135 @@
       <c r="AB26" s="752"/>
       <c r="AC26" s="753"/>
       <c r="AD26" s="754" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE26" s="755"/>
       <c r="AF26" s="5342" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG26" s="757"/>
       <c r="AH26" s="5343" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI26" s="759"/>
       <c r="AJ26" s="760" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" s="761"/>
       <c r="AL26" s="762" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM26" s="763"/>
       <c r="AN26" s="764" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO26" s="765"/>
       <c r="AP26" s="766" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ26" s="767"/>
       <c r="AR26" s="768" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS26" s="769"/>
       <c r="AT26" s="5344" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU26" s="771"/>
       <c r="AV26" s="5345" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW26" s="773"/>
       <c r="AX26" s="5346" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY26" s="775"/>
       <c r="AZ26" s="5347" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA26" s="777"/>
       <c r="BB26" s="778" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC26" s="779"/>
       <c r="BD26" s="780" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE26" s="781"/>
       <c r="BF26" s="782" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG26" s="783"/>
       <c r="BH26" s="784" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI26" s="785"/>
       <c r="BJ26" s="786"/>
       <c r="BK26" s="787"/>
       <c r="BL26" s="5348" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM26" s="789"/>
       <c r="BN26" s="5349" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO26" s="791"/>
       <c r="BP26" s="792" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ26" s="793"/>
       <c r="BR26" s="794" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS26" s="795"/>
       <c r="BT26" s="796" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU26" s="797"/>
       <c r="BV26" s="798" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW26" s="799"/>
       <c r="BX26" s="800" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY26" s="801"/>
       <c r="BZ26" s="5350" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA26" s="803"/>
       <c r="CB26" s="5351" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC26" s="805"/>
       <c r="CD26" s="806" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE26" s="807"/>
       <c r="CF26" s="808" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG26" s="809"/>
       <c r="CH26" s="810" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI26" s="811"/>
       <c r="CJ26" s="812" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK26" s="813"/>
       <c r="CL26" s="814" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM26" s="815"/>
       <c r="CN26" s="5352" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO26" s="817"/>
       <c r="CP26" s="818"/>
       <c r="CQ26" s="819"/>
       <c r="CR26" s="820" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS26" s="821"/>
       <c r="CT26" s="822"/>
@@ -22015,11 +22690,11 @@
       </c>
       <c r="AE27" s="854"/>
       <c r="AF27" s="5342" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG27" s="856"/>
       <c r="AH27" s="5343" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI27" s="858"/>
       <c r="AJ27" s="859" t="n">
@@ -22047,15 +22722,15 @@
       </c>
       <c r="AU27" s="870"/>
       <c r="AV27" s="5345" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW27" s="872"/>
       <c r="AX27" s="5346" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY27" s="874"/>
       <c r="AZ27" s="5347" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA27" s="876"/>
       <c r="BB27" s="877" t="n">
@@ -22075,11 +22750,11 @@
       <c r="BJ27" s="885"/>
       <c r="BK27" s="886"/>
       <c r="BL27" s="5348" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM27" s="888"/>
       <c r="BN27" s="5349" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO27" s="890"/>
       <c r="BP27" s="891" t="n">
@@ -22103,11 +22778,11 @@
       </c>
       <c r="BY27" s="900"/>
       <c r="BZ27" s="5350" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA27" s="902"/>
       <c r="CB27" s="5351" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC27" s="904"/>
       <c r="CD27" s="905" t="n">
@@ -22131,7 +22806,7 @@
       </c>
       <c r="CM27" s="914"/>
       <c r="CN27" s="5352" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO27" s="916"/>
       <c r="CP27" s="917"/>
@@ -22147,7 +22822,7 @@
       </c>
       <c r="B28" s="924"/>
       <c r="C28" s="925" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="926"/>
       <c r="E28" s="927"/>
@@ -22161,19 +22836,19 @@
       <c r="M28" s="935"/>
       <c r="N28" s="936"/>
       <c r="O28" s="937" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P28" s="938"/>
       <c r="Q28" s="939"/>
       <c r="R28" s="940"/>
       <c r="S28" s="941" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T28" s="942"/>
       <c r="U28" s="943"/>
       <c r="V28" s="944"/>
       <c r="W28" s="945" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X28" s="946"/>
       <c r="Y28" s="947"/>
@@ -22182,19 +22857,19 @@
       <c r="AB28" s="950"/>
       <c r="AC28" s="951"/>
       <c r="AD28" s="952" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE28" s="953"/>
       <c r="AF28" s="5353" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG28" s="955"/>
       <c r="AH28" s="5354" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI28" s="957"/>
       <c r="AJ28" s="958" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" s="959"/>
       <c r="AL28" s="960"/>
@@ -22220,7 +22895,7 @@
       <c r="BF28" s="980"/>
       <c r="BG28" s="981"/>
       <c r="BH28" s="982" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BI28" s="983"/>
       <c r="BJ28" s="984"/>
@@ -22258,7 +22933,7 @@
       <c r="CP28" s="1016"/>
       <c r="CQ28" s="1017"/>
       <c r="CR28" s="1018" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CS28" s="1019"/>
       <c r="CT28" s="1020"/>
@@ -22299,11 +22974,11 @@
       </c>
       <c r="AE29" s="1052"/>
       <c r="AF29" s="5353" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG29" s="1054"/>
       <c r="AH29" s="5354" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI29" s="1056"/>
       <c r="AJ29" s="1057" t="n">
@@ -22379,7 +23054,7 @@
       </c>
       <c r="B30" s="1122"/>
       <c r="C30" s="1123" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1124"/>
       <c r="E30" s="1125"/>
@@ -22393,19 +23068,19 @@
       <c r="M30" s="1133"/>
       <c r="N30" s="1134"/>
       <c r="O30" s="1135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P30" s="1136"/>
       <c r="Q30" s="1137"/>
       <c r="R30" s="1138"/>
       <c r="S30" s="1139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T30" s="1140"/>
       <c r="U30" s="1141"/>
       <c r="V30" s="1142"/>
       <c r="W30" s="1143" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X30" s="1144"/>
       <c r="Y30" s="1145"/>
@@ -22414,135 +23089,135 @@
       <c r="AB30" s="1148"/>
       <c r="AC30" s="1149"/>
       <c r="AD30" s="1150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE30" s="1151"/>
       <c r="AF30" s="5355" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG30" s="1153"/>
       <c r="AH30" s="5356" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI30" s="1155"/>
       <c r="AJ30" s="1156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK30" s="1157"/>
       <c r="AL30" s="1158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM30" s="1159"/>
       <c r="AN30" s="1160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO30" s="1161"/>
       <c r="AP30" s="1162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ30" s="1163"/>
       <c r="AR30" s="1164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS30" s="1165"/>
       <c r="AT30" s="5357" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU30" s="1167"/>
       <c r="AV30" s="5358" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW30" s="1169"/>
       <c r="AX30" s="5359" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY30" s="1171"/>
       <c r="AZ30" s="5360" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA30" s="1173"/>
       <c r="BB30" s="1174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC30" s="1175"/>
       <c r="BD30" s="1176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE30" s="1177"/>
       <c r="BF30" s="1178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG30" s="1179"/>
       <c r="BH30" s="1180" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI30" s="1181"/>
       <c r="BJ30" s="1182"/>
       <c r="BK30" s="1183"/>
       <c r="BL30" s="5361" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM30" s="1185"/>
       <c r="BN30" s="5362" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO30" s="1187"/>
       <c r="BP30" s="1188" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ30" s="1189"/>
       <c r="BR30" s="1190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS30" s="1191"/>
       <c r="BT30" s="1192" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU30" s="1193"/>
       <c r="BV30" s="1194" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW30" s="1195"/>
       <c r="BX30" s="1196" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY30" s="1197"/>
       <c r="BZ30" s="5363" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA30" s="1199"/>
       <c r="CB30" s="5364" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC30" s="1201"/>
       <c r="CD30" s="1202" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE30" s="1203"/>
       <c r="CF30" s="1204" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG30" s="1205"/>
       <c r="CH30" s="1206" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI30" s="1207"/>
       <c r="CJ30" s="1208" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK30" s="1209"/>
       <c r="CL30" s="1210" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM30" s="1211"/>
       <c r="CN30" s="5365" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO30" s="1213"/>
       <c r="CP30" s="1214"/>
       <c r="CQ30" s="1215"/>
       <c r="CR30" s="1216" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS30" s="1217"/>
       <c r="CT30" s="1218"/>
@@ -22583,11 +23258,11 @@
       </c>
       <c r="AE31" s="1250"/>
       <c r="AF31" s="5355" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG31" s="1252"/>
       <c r="AH31" s="5356" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI31" s="1254"/>
       <c r="AJ31" s="1255" t="n">
@@ -22615,15 +23290,15 @@
       </c>
       <c r="AU31" s="1266"/>
       <c r="AV31" s="5358" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW31" s="1268"/>
       <c r="AX31" s="5359" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY31" s="1270"/>
       <c r="AZ31" s="5360" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA31" s="1272"/>
       <c r="BB31" s="1273" t="n">
@@ -22643,11 +23318,11 @@
       <c r="BJ31" s="1281"/>
       <c r="BK31" s="1282"/>
       <c r="BL31" s="5361" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM31" s="1284"/>
       <c r="BN31" s="5362" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO31" s="1286"/>
       <c r="BP31" s="1287" t="n">
@@ -22671,11 +23346,11 @@
       </c>
       <c r="BY31" s="1296"/>
       <c r="BZ31" s="5363" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA31" s="1298"/>
       <c r="CB31" s="5364" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC31" s="1300"/>
       <c r="CD31" s="1301" t="n">
@@ -22699,7 +23374,7 @@
       </c>
       <c r="CM31" s="1310"/>
       <c r="CN31" s="5365" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO31" s="1312"/>
       <c r="CP31" s="1313"/>
@@ -22715,7 +23390,7 @@
       </c>
       <c r="B32" s="1320"/>
       <c r="C32" s="1321" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1322"/>
       <c r="E32" s="1323"/>
@@ -22729,19 +23404,19 @@
       <c r="M32" s="1331"/>
       <c r="N32" s="1332"/>
       <c r="O32" s="1333" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P32" s="1334"/>
       <c r="Q32" s="1335"/>
       <c r="R32" s="1336"/>
       <c r="S32" s="1337" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T32" s="1338"/>
       <c r="U32" s="1339"/>
       <c r="V32" s="1340"/>
       <c r="W32" s="1341" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X32" s="1342"/>
       <c r="Y32" s="1343"/>
@@ -22750,135 +23425,135 @@
       <c r="AB32" s="1346"/>
       <c r="AC32" s="1347"/>
       <c r="AD32" s="1348" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE32" s="1349"/>
       <c r="AF32" s="5366" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG32" s="1351"/>
       <c r="AH32" s="5367" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI32" s="1353"/>
       <c r="AJ32" s="1354" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK32" s="1355"/>
       <c r="AL32" s="1356" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM32" s="1357"/>
       <c r="AN32" s="1358" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO32" s="1359"/>
       <c r="AP32" s="1360" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ32" s="1361"/>
       <c r="AR32" s="1362" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS32" s="1363"/>
       <c r="AT32" s="5368" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU32" s="1365"/>
       <c r="AV32" s="5369" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW32" s="1367"/>
       <c r="AX32" s="5370" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY32" s="1369"/>
       <c r="AZ32" s="5371" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA32" s="1371"/>
       <c r="BB32" s="1372" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC32" s="1373"/>
       <c r="BD32" s="1374" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE32" s="1375"/>
       <c r="BF32" s="1376" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG32" s="1377"/>
       <c r="BH32" s="1378" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI32" s="1379"/>
       <c r="BJ32" s="1380"/>
       <c r="BK32" s="1381"/>
       <c r="BL32" s="5372" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM32" s="1383"/>
       <c r="BN32" s="5373" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO32" s="1385"/>
       <c r="BP32" s="1386" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ32" s="1387"/>
       <c r="BR32" s="1388" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS32" s="1389"/>
       <c r="BT32" s="1390" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU32" s="1391"/>
       <c r="BV32" s="1392" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW32" s="1393"/>
       <c r="BX32" s="1394" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY32" s="1395"/>
       <c r="BZ32" s="5374" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA32" s="1397"/>
       <c r="CB32" s="5375" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC32" s="1399"/>
       <c r="CD32" s="1400" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE32" s="1401"/>
       <c r="CF32" s="1402" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG32" s="1403"/>
       <c r="CH32" s="1404" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI32" s="1405"/>
       <c r="CJ32" s="1406" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK32" s="1407"/>
       <c r="CL32" s="1408" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM32" s="1409"/>
       <c r="CN32" s="5376" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO32" s="1411"/>
       <c r="CP32" s="1412"/>
       <c r="CQ32" s="1413"/>
       <c r="CR32" s="1414" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS32" s="1415"/>
       <c r="CT32" s="1416"/>
@@ -22919,11 +23594,11 @@
       </c>
       <c r="AE33" s="1448"/>
       <c r="AF33" s="5366" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG33" s="1450"/>
       <c r="AH33" s="5367" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI33" s="1452"/>
       <c r="AJ33" s="1453" t="n">
@@ -22951,15 +23626,15 @@
       </c>
       <c r="AU33" s="1464"/>
       <c r="AV33" s="5369" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW33" s="1466"/>
       <c r="AX33" s="5370" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY33" s="1468"/>
       <c r="AZ33" s="5371" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA33" s="1470"/>
       <c r="BB33" s="1471" t="n">
@@ -22979,11 +23654,11 @@
       <c r="BJ33" s="1479"/>
       <c r="BK33" s="1480"/>
       <c r="BL33" s="5372" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM33" s="1482"/>
       <c r="BN33" s="5373" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO33" s="1484"/>
       <c r="BP33" s="1485" t="n">
@@ -23007,11 +23682,11 @@
       </c>
       <c r="BY33" s="1494"/>
       <c r="BZ33" s="5374" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA33" s="1496"/>
       <c r="CB33" s="5375" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC33" s="1498"/>
       <c r="CD33" s="1499" t="n">
@@ -23035,7 +23710,7 @@
       </c>
       <c r="CM33" s="1508"/>
       <c r="CN33" s="5376" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO33" s="1510"/>
       <c r="CP33" s="1511"/>
@@ -23051,7 +23726,7 @@
       </c>
       <c r="B34" s="1518"/>
       <c r="C34" s="1519" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1520"/>
       <c r="E34" s="1521"/>
@@ -23065,19 +23740,19 @@
       <c r="M34" s="1529"/>
       <c r="N34" s="1530"/>
       <c r="O34" s="1531" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P34" s="1532"/>
       <c r="Q34" s="1533"/>
       <c r="R34" s="1534"/>
       <c r="S34" s="1535" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T34" s="1536"/>
       <c r="U34" s="1537"/>
       <c r="V34" s="1538"/>
       <c r="W34" s="1539" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X34" s="1540"/>
       <c r="Y34" s="1541"/>
@@ -23086,19 +23761,19 @@
       <c r="AB34" s="1544"/>
       <c r="AC34" s="1545"/>
       <c r="AD34" s="1546" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE34" s="1547"/>
       <c r="AF34" s="5377" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG34" s="1549"/>
       <c r="AH34" s="5378" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI34" s="1551"/>
       <c r="AJ34" s="1552" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" s="1553"/>
       <c r="AL34" s="1554"/>
@@ -23124,7 +23799,7 @@
       <c r="BF34" s="1574"/>
       <c r="BG34" s="1575"/>
       <c r="BH34" s="1576" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BI34" s="1577"/>
       <c r="BJ34" s="1578"/>
@@ -23162,7 +23837,7 @@
       <c r="CP34" s="1610"/>
       <c r="CQ34" s="1611"/>
       <c r="CR34" s="1612" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CS34" s="1613"/>
       <c r="CT34" s="1614"/>
@@ -23203,11 +23878,11 @@
       </c>
       <c r="AE35" s="1646"/>
       <c r="AF35" s="5377" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG35" s="1648"/>
       <c r="AH35" s="5378" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI35" s="1650"/>
       <c r="AJ35" s="1651" t="n">
@@ -23283,7 +23958,7 @@
       </c>
       <c r="B36" s="1716"/>
       <c r="C36" s="1717" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1718"/>
       <c r="E36" s="1719"/>
@@ -23297,19 +23972,19 @@
       <c r="M36" s="1727"/>
       <c r="N36" s="1728"/>
       <c r="O36" s="1729" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P36" s="1730"/>
       <c r="Q36" s="1731"/>
       <c r="R36" s="1732"/>
       <c r="S36" s="1733" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T36" s="1734"/>
       <c r="U36" s="1735"/>
       <c r="V36" s="1736"/>
       <c r="W36" s="1737" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X36" s="1738"/>
       <c r="Y36" s="1739"/>
@@ -23318,135 +23993,135 @@
       <c r="AB36" s="1742"/>
       <c r="AC36" s="1743"/>
       <c r="AD36" s="1744" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE36" s="1745"/>
       <c r="AF36" s="5379" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG36" s="1747"/>
       <c r="AH36" s="5380" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI36" s="1749"/>
       <c r="AJ36" s="1750" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" s="1751"/>
       <c r="AL36" s="1752" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM36" s="1753"/>
       <c r="AN36" s="1754" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO36" s="1755"/>
       <c r="AP36" s="1756" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ36" s="1757"/>
       <c r="AR36" s="1758" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS36" s="1759"/>
       <c r="AT36" s="5381" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU36" s="1761"/>
       <c r="AV36" s="5382" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW36" s="1763"/>
       <c r="AX36" s="5383" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY36" s="1765"/>
       <c r="AZ36" s="5384" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA36" s="1767"/>
       <c r="BB36" s="1768" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC36" s="1769"/>
       <c r="BD36" s="1770" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE36" s="1771"/>
       <c r="BF36" s="1772" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG36" s="1773"/>
       <c r="BH36" s="1774" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI36" s="1775"/>
       <c r="BJ36" s="1776"/>
       <c r="BK36" s="1777"/>
       <c r="BL36" s="1778" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BM36" s="1779"/>
       <c r="BN36" s="5385" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO36" s="1781"/>
       <c r="BP36" s="1782" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ36" s="1783"/>
       <c r="BR36" s="1784" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS36" s="1785"/>
       <c r="BT36" s="1786" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU36" s="1787"/>
       <c r="BV36" s="1788" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW36" s="1789"/>
       <c r="BX36" s="1790" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY36" s="1791"/>
       <c r="BZ36" s="5386" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA36" s="1793"/>
       <c r="CB36" s="5387" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC36" s="1795"/>
       <c r="CD36" s="1796" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE36" s="1797"/>
       <c r="CF36" s="1798" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG36" s="1799"/>
       <c r="CH36" s="1800" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI36" s="1801"/>
       <c r="CJ36" s="1802" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK36" s="1803"/>
       <c r="CL36" s="1804" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM36" s="1805"/>
       <c r="CN36" s="5388" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO36" s="1807"/>
       <c r="CP36" s="1808"/>
       <c r="CQ36" s="1809"/>
       <c r="CR36" s="1810" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CS36" s="1811"/>
       <c r="CT36" s="1812"/>
@@ -23487,11 +24162,11 @@
       </c>
       <c r="AE37" s="1844"/>
       <c r="AF37" s="5379" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG37" s="1846"/>
       <c r="AH37" s="5380" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI37" s="1848"/>
       <c r="AJ37" s="1849" t="n">
@@ -23519,15 +24194,15 @@
       </c>
       <c r="AU37" s="1860"/>
       <c r="AV37" s="5382" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW37" s="1862"/>
       <c r="AX37" s="5383" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY37" s="1864"/>
       <c r="AZ37" s="5384" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA37" s="1866"/>
       <c r="BB37" s="1867" t="n">
@@ -23551,7 +24226,7 @@
       </c>
       <c r="BM37" s="1878"/>
       <c r="BN37" s="5385" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO37" s="1880"/>
       <c r="BP37" s="1881" t="n">
@@ -23575,11 +24250,11 @@
       </c>
       <c r="BY37" s="1890"/>
       <c r="BZ37" s="5386" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA37" s="1892"/>
       <c r="CB37" s="5387" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC37" s="1894"/>
       <c r="CD37" s="1895" t="n">
@@ -23603,7 +24278,7 @@
       </c>
       <c r="CM37" s="1904"/>
       <c r="CN37" s="5388" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO37" s="1906"/>
       <c r="CP37" s="1907"/>
@@ -23619,7 +24294,7 @@
       </c>
       <c r="B38" s="1914"/>
       <c r="C38" s="1915" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1916"/>
       <c r="E38" s="1917"/>
@@ -23633,19 +24308,19 @@
       <c r="M38" s="1925"/>
       <c r="N38" s="1926"/>
       <c r="O38" s="1927" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P38" s="1928"/>
       <c r="Q38" s="1929"/>
       <c r="R38" s="1930"/>
       <c r="S38" s="1931" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T38" s="1932"/>
       <c r="U38" s="1933"/>
       <c r="V38" s="1934"/>
       <c r="W38" s="1935" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X38" s="1936"/>
       <c r="Y38" s="1937"/>
@@ -23654,135 +24329,135 @@
       <c r="AB38" s="1940"/>
       <c r="AC38" s="1941"/>
       <c r="AD38" s="1942" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE38" s="1943"/>
       <c r="AF38" s="5389" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG38" s="1945"/>
       <c r="AH38" s="5390" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI38" s="1947"/>
       <c r="AJ38" s="1948" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" s="1949"/>
       <c r="AL38" s="1950" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM38" s="1951"/>
       <c r="AN38" s="1952" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO38" s="1953"/>
       <c r="AP38" s="1954" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ38" s="1955"/>
       <c r="AR38" s="1956" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS38" s="1957"/>
       <c r="AT38" s="5391" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU38" s="1959"/>
       <c r="AV38" s="5392" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW38" s="1961"/>
       <c r="AX38" s="5393" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY38" s="1963"/>
       <c r="AZ38" s="5394" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA38" s="1965"/>
       <c r="BB38" s="1966" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC38" s="1967"/>
       <c r="BD38" s="1968" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE38" s="1969"/>
       <c r="BF38" s="1970" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG38" s="1971"/>
       <c r="BH38" s="1972" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI38" s="1973"/>
       <c r="BJ38" s="1974"/>
       <c r="BK38" s="1975"/>
       <c r="BL38" s="5395" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM38" s="1977"/>
       <c r="BN38" s="5396" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO38" s="1979"/>
       <c r="BP38" s="1980" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ38" s="1981"/>
       <c r="BR38" s="1982" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS38" s="1983"/>
       <c r="BT38" s="1984" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU38" s="1985"/>
       <c r="BV38" s="1986" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW38" s="1987"/>
       <c r="BX38" s="1988" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY38" s="1989"/>
       <c r="BZ38" s="5397" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA38" s="1991"/>
       <c r="CB38" s="5398" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC38" s="1993"/>
       <c r="CD38" s="1994" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE38" s="1995"/>
       <c r="CF38" s="1996" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG38" s="1997"/>
       <c r="CH38" s="1998" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI38" s="1999"/>
       <c r="CJ38" s="2000" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK38" s="2001"/>
       <c r="CL38" s="2002" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM38" s="2003"/>
       <c r="CN38" s="5399" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO38" s="2005"/>
       <c r="CP38" s="2006"/>
       <c r="CQ38" s="2007"/>
       <c r="CR38" s="2008" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS38" s="2009"/>
       <c r="CT38" s="2010"/>
@@ -23823,11 +24498,11 @@
       </c>
       <c r="AE39" s="2042"/>
       <c r="AF39" s="5389" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG39" s="2044"/>
       <c r="AH39" s="5390" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI39" s="2046"/>
       <c r="AJ39" s="2047" t="n">
@@ -23855,15 +24530,15 @@
       </c>
       <c r="AU39" s="2058"/>
       <c r="AV39" s="5392" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW39" s="2060"/>
       <c r="AX39" s="5393" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY39" s="2062"/>
       <c r="AZ39" s="5394" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA39" s="2064"/>
       <c r="BB39" s="2065" t="n">
@@ -23883,11 +24558,11 @@
       <c r="BJ39" s="2073"/>
       <c r="BK39" s="2074"/>
       <c r="BL39" s="5395" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM39" s="2076"/>
       <c r="BN39" s="5396" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO39" s="2078"/>
       <c r="BP39" s="2079" t="n">
@@ -23911,11 +24586,11 @@
       </c>
       <c r="BY39" s="2088"/>
       <c r="BZ39" s="5397" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA39" s="2090"/>
       <c r="CB39" s="5398" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC39" s="2092"/>
       <c r="CD39" s="2093" t="n">
@@ -23939,7 +24614,7 @@
       </c>
       <c r="CM39" s="2102"/>
       <c r="CN39" s="5399" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO39" s="2104"/>
       <c r="CP39" s="2105"/>
@@ -23955,7 +24630,7 @@
       </c>
       <c r="B40" s="2112"/>
       <c r="C40" s="2113" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2114"/>
       <c r="E40" s="2115"/>
@@ -23969,19 +24644,19 @@
       <c r="M40" s="2123"/>
       <c r="N40" s="2124"/>
       <c r="O40" s="2125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P40" s="2126"/>
       <c r="Q40" s="2127"/>
       <c r="R40" s="2128"/>
       <c r="S40" s="2129" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T40" s="2130"/>
       <c r="U40" s="2131"/>
       <c r="V40" s="2132"/>
       <c r="W40" s="2133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X40" s="2134"/>
       <c r="Y40" s="2135"/>
@@ -23990,19 +24665,19 @@
       <c r="AB40" s="2138"/>
       <c r="AC40" s="2139"/>
       <c r="AD40" s="2140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE40" s="2141"/>
       <c r="AF40" s="5400" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG40" s="2143"/>
       <c r="AH40" s="5401" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI40" s="2145"/>
       <c r="AJ40" s="2146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" s="2147"/>
       <c r="AL40" s="2148"/>
@@ -24028,7 +24703,7 @@
       <c r="BF40" s="2168"/>
       <c r="BG40" s="2169"/>
       <c r="BH40" s="2170" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BI40" s="2171"/>
       <c r="BJ40" s="2172"/>
@@ -24066,7 +24741,7 @@
       <c r="CP40" s="2204"/>
       <c r="CQ40" s="2205"/>
       <c r="CR40" s="2206" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CS40" s="2207"/>
       <c r="CT40" s="2208"/>
@@ -24107,11 +24782,11 @@
       </c>
       <c r="AE41" s="5560"/>
       <c r="AF41" s="5561" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG41" s="5560"/>
       <c r="AH41" s="5561" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI41" s="5560"/>
       <c r="AJ41" s="5560" t="n">
@@ -24212,47 +24887,47 @@
       <c r="AB42" s="5564"/>
       <c r="AC42" s="5564"/>
       <c r="AD42" s="5564" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE42" s="5564"/>
       <c r="AF42" s="5564" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG42" s="5564"/>
       <c r="AH42" s="5564" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI42" s="5564"/>
       <c r="AJ42" s="5564" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK42" s="5564"/>
       <c r="AL42" s="5564" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AM42" s="5564"/>
       <c r="AN42" s="5564" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AO42" s="5564"/>
       <c r="AP42" s="5564" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AQ42" s="5564"/>
       <c r="AR42" s="5564" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AS42" s="5564"/>
       <c r="AT42" s="5564" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AU42" s="5564"/>
       <c r="AV42" s="5564" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AW42" s="5564"/>
       <c r="AX42" s="5564" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AY42" s="5564"/>
       <c r="AZ42" s="5564" t="s">
@@ -24260,15 +24935,15 @@
       </c>
       <c r="BA42" s="5564"/>
       <c r="BB42" s="5564" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BC42" s="5564"/>
       <c r="BD42" s="5564" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BE42" s="5564"/>
       <c r="BF42" s="5564" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BG42" s="5564"/>
       <c r="BH42" s="5564"/>
@@ -24276,11 +24951,11 @@
       <c r="BJ42" s="5564"/>
       <c r="BK42" s="5564"/>
       <c r="BL42" s="5564" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BM42" s="5564"/>
       <c r="BN42" s="5564" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BO42" s="5564"/>
       <c r="BP42" s="5564" t="s">
@@ -24288,7 +24963,7 @@
       </c>
       <c r="BQ42" s="5564"/>
       <c r="BR42" s="5564" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BS42" s="5564"/>
       <c r="BT42" s="5564" t="s">
@@ -24296,11 +24971,11 @@
       </c>
       <c r="BU42" s="5564"/>
       <c r="BV42" s="5564" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BW42" s="5564"/>
       <c r="BX42" s="5564" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="BY42" s="5564"/>
       <c r="BZ42" s="5564" t="s">
@@ -24328,7 +25003,7 @@
       </c>
       <c r="CK42" s="5564"/>
       <c r="CL42" s="5564" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CM42" s="5564"/>
       <c r="CN42" s="5564" t="s">
@@ -24348,7 +25023,7 @@
       </c>
       <c r="B43" s="2310"/>
       <c r="C43" s="2311" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" s="2312"/>
       <c r="E43" s="2313"/>
@@ -24362,19 +25037,19 @@
       <c r="M43" s="2321"/>
       <c r="N43" s="2322"/>
       <c r="O43" s="2323" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P43" s="2324"/>
       <c r="Q43" s="2325"/>
       <c r="R43" s="2326"/>
       <c r="S43" s="2327" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T43" s="2328"/>
       <c r="U43" s="2329"/>
       <c r="V43" s="2330"/>
       <c r="W43" s="2331" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X43" s="2332"/>
       <c r="Y43" s="2333"/>
@@ -24391,119 +25066,119 @@
       <c r="AJ43" s="2344"/>
       <c r="AK43" s="2345"/>
       <c r="AL43" s="2346" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM43" s="2347"/>
       <c r="AN43" s="2348" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO43" s="2349"/>
       <c r="AP43" s="2350" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ43" s="2351"/>
       <c r="AR43" s="2352" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS43" s="2353"/>
       <c r="AT43" s="5402" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU43" s="2355"/>
       <c r="AV43" s="5403" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW43" s="2357"/>
       <c r="AX43" s="5404" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY43" s="2359"/>
       <c r="AZ43" s="5405" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA43" s="2361"/>
       <c r="BB43" s="2362" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC43" s="2363"/>
       <c r="BD43" s="2364" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE43" s="2365"/>
       <c r="BF43" s="2366" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG43" s="2367"/>
       <c r="BH43" s="2368" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BI43" s="2369"/>
       <c r="BJ43" s="2370"/>
       <c r="BK43" s="2371"/>
       <c r="BL43" s="5406" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM43" s="2373"/>
       <c r="BN43" s="5407" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO43" s="2375"/>
       <c r="BP43" s="2376" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ43" s="2377"/>
       <c r="BR43" s="2378" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS43" s="2379"/>
       <c r="BT43" s="2380" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU43" s="2381"/>
       <c r="BV43" s="2382" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW43" s="2383"/>
       <c r="BX43" s="2384" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY43" s="2385"/>
       <c r="BZ43" s="5408" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA43" s="2387"/>
       <c r="CB43" s="5409" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC43" s="2389"/>
       <c r="CD43" s="2390" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE43" s="2391"/>
       <c r="CF43" s="2392" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG43" s="2393"/>
       <c r="CH43" s="2394" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI43" s="2395"/>
       <c r="CJ43" s="2396" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK43" s="2397"/>
       <c r="CL43" s="2398" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM43" s="2399"/>
       <c r="CN43" s="5410" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO43" s="2401"/>
       <c r="CP43" s="2402"/>
       <c r="CQ43" s="2403"/>
       <c r="CR43" s="2404" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CS43" s="2405"/>
       <c r="CT43" s="2406"/>
@@ -24568,15 +25243,15 @@
       </c>
       <c r="AU44" s="2454"/>
       <c r="AV44" s="5403" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW44" s="2456"/>
       <c r="AX44" s="5404" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY44" s="2458"/>
       <c r="AZ44" s="5405" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA44" s="2460"/>
       <c r="BB44" s="2461" t="n">
@@ -24596,11 +25271,11 @@
       <c r="BJ44" s="2469"/>
       <c r="BK44" s="2470"/>
       <c r="BL44" s="5406" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM44" s="2472"/>
       <c r="BN44" s="5407" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO44" s="2474"/>
       <c r="BP44" s="2475" t="n">
@@ -24624,11 +25299,11 @@
       </c>
       <c r="BY44" s="2484"/>
       <c r="BZ44" s="5408" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA44" s="2486"/>
       <c r="CB44" s="5409" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC44" s="2488"/>
       <c r="CD44" s="2489" t="n">
@@ -24652,7 +25327,7 @@
       </c>
       <c r="CM44" s="2498"/>
       <c r="CN44" s="5410" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO44" s="2500"/>
       <c r="CP44" s="2501"/>
@@ -24682,7 +25357,7 @@
       <c r="M45" s="2519"/>
       <c r="N45" s="2520"/>
       <c r="O45" s="2521" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P45" s="2522"/>
       <c r="Q45" s="2523"/>
@@ -24694,7 +25369,7 @@
       <c r="U45" s="2527"/>
       <c r="V45" s="2528"/>
       <c r="W45" s="2529" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" s="2530"/>
       <c r="Y45" s="2531"/>
@@ -24703,15 +25378,15 @@
       <c r="AB45" s="2534"/>
       <c r="AC45" s="2535"/>
       <c r="AD45" s="2536" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE45" s="2537"/>
       <c r="AF45" s="5412" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG45" s="2539"/>
       <c r="AH45" s="5413" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI45" s="2541"/>
       <c r="AJ45" s="5414" t="s">
@@ -24872,59 +25547,59 @@
       </c>
       <c r="AE46" s="2636"/>
       <c r="AF46" s="5412" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG46" s="2638"/>
       <c r="AH46" s="5413" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI46" s="2640"/>
       <c r="AJ46" s="5414" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" s="2642"/>
       <c r="AL46" s="5415" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM46" s="2644"/>
       <c r="AN46" s="5416" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO46" s="2646"/>
       <c r="AP46" s="5417" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ46" s="2648"/>
       <c r="AR46" s="5418" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS46" s="2650"/>
       <c r="AT46" s="5419" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU46" s="2652"/>
       <c r="AV46" s="5420" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW46" s="2654"/>
       <c r="AX46" s="5421" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY46" s="2656"/>
       <c r="AZ46" s="5422" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA46" s="2658"/>
       <c r="BB46" s="5423" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC46" s="2660"/>
       <c r="BD46" s="5424" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BE46" s="2662"/>
       <c r="BF46" s="5425" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BG46" s="2664"/>
       <c r="BH46" s="2665"/>
@@ -24932,63 +25607,63 @@
       <c r="BJ46" s="2667"/>
       <c r="BK46" s="2668"/>
       <c r="BL46" s="5426" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM46" s="2670"/>
       <c r="BN46" s="5427" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO46" s="2672"/>
       <c r="BP46" s="5428" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ46" s="2674"/>
       <c r="BR46" s="5429" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS46" s="2676"/>
       <c r="BT46" s="5430" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU46" s="2678"/>
       <c r="BV46" s="5431" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BW46" s="2680"/>
       <c r="BX46" s="5432" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BY46" s="2682"/>
       <c r="BZ46" s="5433" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA46" s="2684"/>
       <c r="CB46" s="5434" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC46" s="2686"/>
       <c r="CD46" s="5435" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE46" s="2688"/>
       <c r="CF46" s="5436" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG46" s="2690"/>
       <c r="CH46" s="5437" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI46" s="2692"/>
       <c r="CJ46" s="5438" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK46" s="2694"/>
       <c r="CL46" s="5439" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CM46" s="2696"/>
       <c r="CN46" s="5440" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO46" s="2698"/>
       <c r="CP46" s="2699"/>
@@ -25018,7 +25693,7 @@
       <c r="M47" s="2717"/>
       <c r="N47" s="2718"/>
       <c r="O47" s="2719" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P47" s="2720"/>
       <c r="Q47" s="2721"/>
@@ -25030,7 +25705,7 @@
       <c r="U47" s="2725"/>
       <c r="V47" s="2726"/>
       <c r="W47" s="2727" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X47" s="2728"/>
       <c r="Y47" s="2729"/>
@@ -25039,135 +25714,135 @@
       <c r="AB47" s="2732"/>
       <c r="AC47" s="2733"/>
       <c r="AD47" s="2734" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE47" s="2735"/>
       <c r="AF47" s="5441" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG47" s="2737"/>
       <c r="AH47" s="5442" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI47" s="2739"/>
       <c r="AJ47" s="2740" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" s="2741"/>
       <c r="AL47" s="2742" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM47" s="2743"/>
       <c r="AN47" s="2744" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO47" s="2745"/>
       <c r="AP47" s="2746" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ47" s="2747"/>
       <c r="AR47" s="2748" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS47" s="2749"/>
       <c r="AT47" s="5443" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU47" s="2751"/>
       <c r="AV47" s="5444" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW47" s="2753"/>
       <c r="AX47" s="5445" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY47" s="2755"/>
       <c r="AZ47" s="5446" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA47" s="2757"/>
       <c r="BB47" s="2758" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC47" s="2759"/>
       <c r="BD47" s="2760" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE47" s="2761"/>
       <c r="BF47" s="2762" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG47" s="2763"/>
       <c r="BH47" s="2764" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI47" s="2765"/>
       <c r="BJ47" s="2766"/>
       <c r="BK47" s="2767"/>
       <c r="BL47" s="5447" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM47" s="2769"/>
       <c r="BN47" s="5448" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO47" s="2771"/>
       <c r="BP47" s="2772" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ47" s="2773"/>
       <c r="BR47" s="2774" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS47" s="2775"/>
       <c r="BT47" s="2776" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU47" s="2777"/>
       <c r="BV47" s="2778" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW47" s="2779"/>
       <c r="BX47" s="2780" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY47" s="2781"/>
       <c r="BZ47" s="5449" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA47" s="2783"/>
       <c r="CB47" s="5450" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC47" s="2785"/>
       <c r="CD47" s="2786" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE47" s="2787"/>
       <c r="CF47" s="2788" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG47" s="2789"/>
       <c r="CH47" s="2790" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI47" s="2791"/>
       <c r="CJ47" s="2792" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK47" s="2793"/>
       <c r="CL47" s="2794" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM47" s="2795"/>
       <c r="CN47" s="5451" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO47" s="2797"/>
       <c r="CP47" s="2798"/>
       <c r="CQ47" s="2799"/>
       <c r="CR47" s="2800" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS47" s="2801"/>
       <c r="CT47" s="2802"/>
@@ -25208,11 +25883,11 @@
       </c>
       <c r="AE48" s="2834"/>
       <c r="AF48" s="5441" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG48" s="2836"/>
       <c r="AH48" s="5442" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI48" s="2838"/>
       <c r="AJ48" s="2839" t="n">
@@ -25240,15 +25915,15 @@
       </c>
       <c r="AU48" s="2850"/>
       <c r="AV48" s="5444" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW48" s="2852"/>
       <c r="AX48" s="5445" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY48" s="2854"/>
       <c r="AZ48" s="5446" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA48" s="2856"/>
       <c r="BB48" s="2857" t="n">
@@ -25268,11 +25943,11 @@
       <c r="BJ48" s="2865"/>
       <c r="BK48" s="2866"/>
       <c r="BL48" s="5447" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM48" s="2868"/>
       <c r="BN48" s="5448" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO48" s="2870"/>
       <c r="BP48" s="2871" t="n">
@@ -25296,11 +25971,11 @@
       </c>
       <c r="BY48" s="2880"/>
       <c r="BZ48" s="5449" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA48" s="2882"/>
       <c r="CB48" s="5450" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC48" s="2884"/>
       <c r="CD48" s="2885" t="n">
@@ -25324,7 +25999,7 @@
       </c>
       <c r="CM48" s="2894"/>
       <c r="CN48" s="5451" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO48" s="2896"/>
       <c r="CP48" s="2897"/>
@@ -25354,7 +26029,7 @@
       <c r="M49" s="2915"/>
       <c r="N49" s="2916"/>
       <c r="O49" s="2917" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P49" s="2918"/>
       <c r="Q49" s="2919"/>
@@ -25375,135 +26050,135 @@
       <c r="AB49" s="2930"/>
       <c r="AC49" s="2931"/>
       <c r="AD49" s="2932" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE49" s="2933"/>
       <c r="AF49" s="5452" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG49" s="2935"/>
       <c r="AH49" s="5453" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI49" s="2937"/>
       <c r="AJ49" s="2938" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" s="2939"/>
       <c r="AL49" s="2940" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM49" s="2941"/>
       <c r="AN49" s="2942" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO49" s="2943"/>
       <c r="AP49" s="2944" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ49" s="2945"/>
       <c r="AR49" s="2946" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS49" s="2947"/>
       <c r="AT49" s="5454" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU49" s="2949"/>
       <c r="AV49" s="5455" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW49" s="2951"/>
       <c r="AX49" s="5456" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY49" s="2953"/>
       <c r="AZ49" s="5457" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA49" s="2955"/>
       <c r="BB49" s="2956" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC49" s="2957"/>
       <c r="BD49" s="2958" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE49" s="2959"/>
       <c r="BF49" s="2960" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG49" s="2961"/>
       <c r="BH49" s="2962" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI49" s="2963"/>
       <c r="BJ49" s="2964"/>
       <c r="BK49" s="2965"/>
       <c r="BL49" s="5458" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM49" s="2967"/>
       <c r="BN49" s="5459" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO49" s="2969"/>
       <c r="BP49" s="2970" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ49" s="2971"/>
       <c r="BR49" s="2972" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS49" s="2973"/>
       <c r="BT49" s="2974" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU49" s="2975"/>
       <c r="BV49" s="2976" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW49" s="2977"/>
       <c r="BX49" s="2978" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY49" s="2979"/>
       <c r="BZ49" s="5460" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA49" s="2981"/>
       <c r="CB49" s="5461" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC49" s="2983"/>
       <c r="CD49" s="2984" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE49" s="2985"/>
       <c r="CF49" s="2986" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG49" s="2987"/>
       <c r="CH49" s="2988" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI49" s="2989"/>
       <c r="CJ49" s="2990" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK49" s="2991"/>
       <c r="CL49" s="2992" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM49" s="2993"/>
       <c r="CN49" s="5462" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO49" s="2995"/>
       <c r="CP49" s="2996"/>
       <c r="CQ49" s="2997"/>
       <c r="CR49" s="2998" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS49" s="2999"/>
       <c r="CT49" s="3000"/>
@@ -25544,11 +26219,11 @@
       </c>
       <c r="AE50" s="3032"/>
       <c r="AF50" s="5452" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG50" s="3034"/>
       <c r="AH50" s="5453" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI50" s="3036"/>
       <c r="AJ50" s="3037" t="n">
@@ -25576,15 +26251,15 @@
       </c>
       <c r="AU50" s="3048"/>
       <c r="AV50" s="5455" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW50" s="3050"/>
       <c r="AX50" s="5456" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY50" s="3052"/>
       <c r="AZ50" s="5457" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA50" s="3054"/>
       <c r="BB50" s="3055" t="n">
@@ -25604,11 +26279,11 @@
       <c r="BJ50" s="3063"/>
       <c r="BK50" s="3064"/>
       <c r="BL50" s="5458" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM50" s="3066"/>
       <c r="BN50" s="5459" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO50" s="3068"/>
       <c r="BP50" s="3069" t="n">
@@ -25632,11 +26307,11 @@
       </c>
       <c r="BY50" s="3078"/>
       <c r="BZ50" s="5460" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA50" s="3080"/>
       <c r="CB50" s="5461" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC50" s="3082"/>
       <c r="CD50" s="3083" t="n">
@@ -25660,7 +26335,7 @@
       </c>
       <c r="CM50" s="3092"/>
       <c r="CN50" s="5462" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO50" s="3094"/>
       <c r="CP50" s="3095"/>
@@ -25690,7 +26365,7 @@
       <c r="M51" s="3113"/>
       <c r="N51" s="3114"/>
       <c r="O51" s="3115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P51" s="3116"/>
       <c r="Q51" s="3117"/>
@@ -25711,19 +26386,19 @@
       <c r="AB51" s="3128"/>
       <c r="AC51" s="3129"/>
       <c r="AD51" s="3130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE51" s="3131"/>
       <c r="AF51" s="5463" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG51" s="3133"/>
       <c r="AH51" s="5464" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI51" s="3135"/>
       <c r="AJ51" s="3136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" s="3137"/>
       <c r="AL51" s="3138"/>
@@ -25749,7 +26424,7 @@
       <c r="BF51" s="3158"/>
       <c r="BG51" s="3159"/>
       <c r="BH51" s="3160" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BI51" s="3161"/>
       <c r="BJ51" s="3162"/>
@@ -25787,7 +26462,7 @@
       <c r="CP51" s="3194"/>
       <c r="CQ51" s="3195"/>
       <c r="CR51" s="3196" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CS51" s="3197"/>
       <c r="CT51" s="3198"/>
@@ -25828,11 +26503,11 @@
       </c>
       <c r="AE52" s="3230"/>
       <c r="AF52" s="5463" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG52" s="3232"/>
       <c r="AH52" s="5464" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI52" s="3234"/>
       <c r="AJ52" s="3235" t="n">
@@ -25922,7 +26597,7 @@
       <c r="M53" s="3311"/>
       <c r="N53" s="3312"/>
       <c r="O53" s="3313" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P53" s="3314"/>
       <c r="Q53" s="3315"/>
@@ -25934,7 +26609,7 @@
       <c r="U53" s="3319"/>
       <c r="V53" s="3320"/>
       <c r="W53" s="3321" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X53" s="3322"/>
       <c r="Y53" s="3323"/>
@@ -25943,135 +26618,135 @@
       <c r="AB53" s="3326"/>
       <c r="AC53" s="3327"/>
       <c r="AD53" s="3328" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE53" s="3329"/>
       <c r="AF53" s="5465" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG53" s="3331"/>
       <c r="AH53" s="5466" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI53" s="3333"/>
       <c r="AJ53" s="3334" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" s="3335"/>
       <c r="AL53" s="3336" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM53" s="3337"/>
       <c r="AN53" s="3338" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO53" s="3339"/>
       <c r="AP53" s="3340" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ53" s="3341"/>
       <c r="AR53" s="3342" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS53" s="3343"/>
       <c r="AT53" s="5467" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU53" s="3345"/>
       <c r="AV53" s="5468" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW53" s="3347"/>
       <c r="AX53" s="5469" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY53" s="3349"/>
       <c r="AZ53" s="5470" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA53" s="3351"/>
       <c r="BB53" s="3352" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC53" s="3353"/>
       <c r="BD53" s="3354" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE53" s="3355"/>
       <c r="BF53" s="3356" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG53" s="3357"/>
       <c r="BH53" s="3358" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI53" s="3359"/>
       <c r="BJ53" s="3360"/>
       <c r="BK53" s="3361"/>
       <c r="BL53" s="3362" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BM53" s="3363"/>
       <c r="BN53" s="5471" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO53" s="3365"/>
       <c r="BP53" s="3366" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ53" s="3367"/>
       <c r="BR53" s="3368" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS53" s="3369"/>
       <c r="BT53" s="3370" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU53" s="3371"/>
       <c r="BV53" s="3372" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW53" s="3373"/>
       <c r="BX53" s="3374" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY53" s="3375"/>
       <c r="BZ53" s="5472" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA53" s="3377"/>
       <c r="CB53" s="5473" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC53" s="3379"/>
       <c r="CD53" s="3380" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE53" s="3381"/>
       <c r="CF53" s="3382" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG53" s="3383"/>
       <c r="CH53" s="3384" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI53" s="3385"/>
       <c r="CJ53" s="3386" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK53" s="3387"/>
       <c r="CL53" s="3388" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM53" s="3389"/>
       <c r="CN53" s="5474" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO53" s="3391"/>
       <c r="CP53" s="3392"/>
       <c r="CQ53" s="3393"/>
       <c r="CR53" s="3394" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CS53" s="3395"/>
       <c r="CT53" s="3396"/>
@@ -26112,11 +26787,11 @@
       </c>
       <c r="AE54" s="3428"/>
       <c r="AF54" s="5465" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG54" s="3430"/>
       <c r="AH54" s="5466" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI54" s="3432"/>
       <c r="AJ54" s="3433" t="n">
@@ -26144,15 +26819,15 @@
       </c>
       <c r="AU54" s="3444"/>
       <c r="AV54" s="5468" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW54" s="3446"/>
       <c r="AX54" s="5469" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY54" s="3448"/>
       <c r="AZ54" s="5470" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA54" s="3450"/>
       <c r="BB54" s="3451" t="n">
@@ -26176,7 +26851,7 @@
       </c>
       <c r="BM54" s="3462"/>
       <c r="BN54" s="5471" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO54" s="3464"/>
       <c r="BP54" s="3465" t="n">
@@ -26200,11 +26875,11 @@
       </c>
       <c r="BY54" s="3474"/>
       <c r="BZ54" s="5472" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA54" s="3476"/>
       <c r="CB54" s="5473" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC54" s="3478"/>
       <c r="CD54" s="3479" t="n">
@@ -26228,7 +26903,7 @@
       </c>
       <c r="CM54" s="3488"/>
       <c r="CN54" s="5474" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO54" s="3490"/>
       <c r="CP54" s="3491"/>
@@ -26258,7 +26933,7 @@
       <c r="M55" s="3509"/>
       <c r="N55" s="3510"/>
       <c r="O55" s="3511" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P55" s="3512"/>
       <c r="Q55" s="3513"/>
@@ -26270,7 +26945,7 @@
       <c r="U55" s="3517"/>
       <c r="V55" s="3518"/>
       <c r="W55" s="3519" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X55" s="3520"/>
       <c r="Y55" s="3521"/>
@@ -26279,135 +26954,135 @@
       <c r="AB55" s="3524"/>
       <c r="AC55" s="3525"/>
       <c r="AD55" s="3526" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE55" s="3527"/>
       <c r="AF55" s="5475" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG55" s="3529"/>
       <c r="AH55" s="5476" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI55" s="3531"/>
       <c r="AJ55" s="3532" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK55" s="3533"/>
       <c r="AL55" s="3534" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM55" s="3535"/>
       <c r="AN55" s="3536" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO55" s="3537"/>
       <c r="AP55" s="3538" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ55" s="3539"/>
       <c r="AR55" s="3540" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS55" s="3541"/>
       <c r="AT55" s="5477" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU55" s="3543"/>
       <c r="AV55" s="5478" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW55" s="3545"/>
       <c r="AX55" s="5479" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY55" s="3547"/>
       <c r="AZ55" s="5480" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA55" s="3549"/>
       <c r="BB55" s="3550" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC55" s="3551"/>
       <c r="BD55" s="3552" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE55" s="3553"/>
       <c r="BF55" s="3554" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG55" s="3555"/>
       <c r="BH55" s="3556" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI55" s="3557"/>
       <c r="BJ55" s="3558"/>
       <c r="BK55" s="3559"/>
       <c r="BL55" s="5481" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM55" s="3561"/>
       <c r="BN55" s="5482" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO55" s="3563"/>
       <c r="BP55" s="3564" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ55" s="3565"/>
       <c r="BR55" s="3566" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS55" s="3567"/>
       <c r="BT55" s="3568" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU55" s="3569"/>
       <c r="BV55" s="3570" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW55" s="3571"/>
       <c r="BX55" s="3572" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY55" s="3573"/>
       <c r="BZ55" s="5483" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA55" s="3575"/>
       <c r="CB55" s="5484" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC55" s="3577"/>
       <c r="CD55" s="3578" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE55" s="3579"/>
       <c r="CF55" s="3580" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG55" s="3581"/>
       <c r="CH55" s="3582" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI55" s="3583"/>
       <c r="CJ55" s="3584" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK55" s="3585"/>
       <c r="CL55" s="3586" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM55" s="3587"/>
       <c r="CN55" s="5485" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO55" s="3589"/>
       <c r="CP55" s="3590"/>
       <c r="CQ55" s="3591"/>
       <c r="CR55" s="3592" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS55" s="3593"/>
       <c r="CT55" s="3594"/>
@@ -26448,11 +27123,11 @@
       </c>
       <c r="AE56" s="3626"/>
       <c r="AF56" s="5475" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG56" s="3628"/>
       <c r="AH56" s="5476" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI56" s="3630"/>
       <c r="AJ56" s="3631" t="n">
@@ -26480,15 +27155,15 @@
       </c>
       <c r="AU56" s="3642"/>
       <c r="AV56" s="5478" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW56" s="3644"/>
       <c r="AX56" s="5479" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY56" s="3646"/>
       <c r="AZ56" s="5480" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA56" s="3648"/>
       <c r="BB56" s="3649" t="n">
@@ -26508,11 +27183,11 @@
       <c r="BJ56" s="3657"/>
       <c r="BK56" s="3658"/>
       <c r="BL56" s="5481" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM56" s="3660"/>
       <c r="BN56" s="5482" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO56" s="3662"/>
       <c r="BP56" s="3663" t="n">
@@ -26536,11 +27211,11 @@
       </c>
       <c r="BY56" s="3672"/>
       <c r="BZ56" s="5483" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA56" s="3674"/>
       <c r="CB56" s="5484" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC56" s="3676"/>
       <c r="CD56" s="3677" t="n">
@@ -26564,7 +27239,7 @@
       </c>
       <c r="CM56" s="3686"/>
       <c r="CN56" s="5485" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO56" s="3688"/>
       <c r="CP56" s="3689"/>
@@ -26594,7 +27269,7 @@
       <c r="M57" s="3707"/>
       <c r="N57" s="3708"/>
       <c r="O57" s="3709" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P57" s="3710"/>
       <c r="Q57" s="3711"/>
@@ -26606,7 +27281,7 @@
       <c r="U57" s="3715"/>
       <c r="V57" s="3716"/>
       <c r="W57" s="3717" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X57" s="3718"/>
       <c r="Y57" s="3719"/>
@@ -26615,31 +27290,31 @@
       <c r="AB57" s="3722"/>
       <c r="AC57" s="3723"/>
       <c r="AD57" s="3724" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE57" s="3725"/>
       <c r="AF57" s="5486" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG57" s="3727"/>
       <c r="AH57" s="5487" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI57" s="3729"/>
       <c r="AJ57" s="3730" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK57" s="3731"/>
       <c r="AL57" s="3732" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM57" s="3733"/>
       <c r="AN57" s="3734" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO57" s="3735"/>
       <c r="AP57" s="3736" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ57" s="3737"/>
       <c r="AR57" s="3738"/>
@@ -26738,11 +27413,11 @@
       </c>
       <c r="AE58" s="3824"/>
       <c r="AF58" s="5486" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG58" s="3826"/>
       <c r="AH58" s="5487" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI58" s="3828"/>
       <c r="AJ58" s="3829" t="n">
@@ -26838,7 +27513,7 @@
       <c r="M59" s="3905"/>
       <c r="N59" s="3906"/>
       <c r="O59" s="3907" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P59" s="3908"/>
       <c r="Q59" s="3909"/>
@@ -26850,7 +27525,7 @@
       <c r="U59" s="3913"/>
       <c r="V59" s="3914"/>
       <c r="W59" s="3915" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X59" s="3916"/>
       <c r="Y59" s="3917"/>
@@ -26859,19 +27534,19 @@
       <c r="AB59" s="3920"/>
       <c r="AC59" s="3921"/>
       <c r="AD59" s="3922" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE59" s="3923"/>
       <c r="AF59" s="5488" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG59" s="3925"/>
       <c r="AH59" s="5489" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI59" s="3927"/>
       <c r="AJ59" s="3928" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" s="3929"/>
       <c r="AL59" s="3930"/>
@@ -26897,7 +27572,7 @@
       <c r="BF59" s="3950"/>
       <c r="BG59" s="3951"/>
       <c r="BH59" s="3952" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BI59" s="3953"/>
       <c r="BJ59" s="3954"/>
@@ -26935,7 +27610,7 @@
       <c r="CP59" s="3986"/>
       <c r="CQ59" s="3987"/>
       <c r="CR59" s="3988" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CS59" s="3989"/>
       <c r="CT59" s="3990"/>
@@ -26976,11 +27651,11 @@
       </c>
       <c r="AE60" s="4022"/>
       <c r="AF60" s="5488" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG60" s="4024"/>
       <c r="AH60" s="5489" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI60" s="4026"/>
       <c r="AJ60" s="4027" t="n">
@@ -27070,7 +27745,7 @@
       <c r="M61" s="4103"/>
       <c r="N61" s="4104"/>
       <c r="O61" s="4105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P61" s="4106"/>
       <c r="Q61" s="4107"/>
@@ -27082,7 +27757,7 @@
       <c r="U61" s="4111"/>
       <c r="V61" s="4112"/>
       <c r="W61" s="4113" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X61" s="4114"/>
       <c r="Y61" s="4115"/>
@@ -27105,35 +27780,35 @@
       <c r="AP61" s="4132"/>
       <c r="AQ61" s="4133"/>
       <c r="AR61" s="4134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS61" s="4135"/>
       <c r="AT61" s="5490" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU61" s="4137"/>
       <c r="AV61" s="5491" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW61" s="4139"/>
       <c r="AX61" s="5492" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY61" s="4141"/>
       <c r="AZ61" s="5493" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA61" s="4143"/>
       <c r="BB61" s="4144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC61" s="4145"/>
       <c r="BD61" s="4146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE61" s="4147"/>
       <c r="BF61" s="4148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG61" s="4149"/>
       <c r="BH61" s="4150" t="s">
@@ -27143,63 +27818,63 @@
       <c r="BJ61" s="4152"/>
       <c r="BK61" s="4153"/>
       <c r="BL61" s="5494" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM61" s="4155"/>
       <c r="BN61" s="5495" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO61" s="4157"/>
       <c r="BP61" s="4158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ61" s="4159"/>
       <c r="BR61" s="4160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS61" s="4161"/>
       <c r="BT61" s="4162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU61" s="4163"/>
       <c r="BV61" s="4164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW61" s="4165"/>
       <c r="BX61" s="4166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY61" s="4167"/>
       <c r="BZ61" s="5496" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA61" s="4169"/>
       <c r="CB61" s="5497" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC61" s="4171"/>
       <c r="CD61" s="4172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE61" s="4173"/>
       <c r="CF61" s="4174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG61" s="4175"/>
       <c r="CH61" s="4176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI61" s="4177"/>
       <c r="CJ61" s="4178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK61" s="4179"/>
       <c r="CL61" s="4180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM61" s="4181"/>
       <c r="CN61" s="5498" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO61" s="4183"/>
       <c r="CP61" s="4184"/>
@@ -27264,15 +27939,15 @@
       </c>
       <c r="AU62" s="4236"/>
       <c r="AV62" s="5491" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW62" s="4238"/>
       <c r="AX62" s="5492" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY62" s="4240"/>
       <c r="AZ62" s="5493" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA62" s="4242"/>
       <c r="BB62" s="4243" t="n">
@@ -27292,11 +27967,11 @@
       <c r="BJ62" s="4251"/>
       <c r="BK62" s="4252"/>
       <c r="BL62" s="5494" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM62" s="4254"/>
       <c r="BN62" s="5495" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO62" s="4256"/>
       <c r="BP62" s="4257" t="n">
@@ -27320,11 +27995,11 @@
       </c>
       <c r="BY62" s="4266"/>
       <c r="BZ62" s="5496" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA62" s="4268"/>
       <c r="CB62" s="5497" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC62" s="4270"/>
       <c r="CD62" s="4271" t="n">
@@ -27348,7 +28023,7 @@
       </c>
       <c r="CM62" s="4280"/>
       <c r="CN62" s="5498" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO62" s="4282"/>
       <c r="CP62" s="4283"/>
@@ -27378,7 +28053,7 @@
       <c r="M63" s="4301"/>
       <c r="N63" s="4302"/>
       <c r="O63" s="4303" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P63" s="4304"/>
       <c r="Q63" s="4305"/>
@@ -27399,135 +28074,135 @@
       <c r="AB63" s="4316"/>
       <c r="AC63" s="4317"/>
       <c r="AD63" s="4318" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE63" s="4319"/>
       <c r="AF63" s="5499" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG63" s="4321"/>
       <c r="AH63" s="5500" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI63" s="4323"/>
       <c r="AJ63" s="4324" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK63" s="4325"/>
       <c r="AL63" s="4326" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM63" s="4327"/>
       <c r="AN63" s="4328" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO63" s="4329"/>
       <c r="AP63" s="4330" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ63" s="4331"/>
       <c r="AR63" s="4332" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS63" s="4333"/>
       <c r="AT63" s="5501" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU63" s="4335"/>
       <c r="AV63" s="5502" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW63" s="4337"/>
       <c r="AX63" s="5503" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY63" s="4339"/>
       <c r="AZ63" s="5504" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA63" s="4341"/>
       <c r="BB63" s="4342" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC63" s="4343"/>
       <c r="BD63" s="4344" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE63" s="4345"/>
       <c r="BF63" s="4346" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG63" s="4347"/>
       <c r="BH63" s="4348" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI63" s="4349"/>
       <c r="BJ63" s="4350"/>
       <c r="BK63" s="4351"/>
       <c r="BL63" s="5505" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM63" s="4353"/>
       <c r="BN63" s="5506" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO63" s="4355"/>
       <c r="BP63" s="4356" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ63" s="4357"/>
       <c r="BR63" s="4358" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS63" s="4359"/>
       <c r="BT63" s="4360" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU63" s="4361"/>
       <c r="BV63" s="4362" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW63" s="4363"/>
       <c r="BX63" s="4364" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY63" s="4365"/>
       <c r="BZ63" s="5507" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA63" s="4367"/>
       <c r="CB63" s="5508" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC63" s="4369"/>
       <c r="CD63" s="4370" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE63" s="4371"/>
       <c r="CF63" s="4372" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG63" s="4373"/>
       <c r="CH63" s="4374" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI63" s="4375"/>
       <c r="CJ63" s="4376" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK63" s="4377"/>
       <c r="CL63" s="4378" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM63" s="4379"/>
       <c r="CN63" s="5509" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO63" s="4381"/>
       <c r="CP63" s="4382"/>
       <c r="CQ63" s="4383"/>
       <c r="CR63" s="4384" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS63" s="4385"/>
       <c r="CT63" s="4386"/>
@@ -27568,11 +28243,11 @@
       </c>
       <c r="AE64" s="4418"/>
       <c r="AF64" s="5499" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG64" s="4420"/>
       <c r="AH64" s="5500" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI64" s="4422"/>
       <c r="AJ64" s="4423" t="n">
@@ -27600,15 +28275,15 @@
       </c>
       <c r="AU64" s="4434"/>
       <c r="AV64" s="5502" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW64" s="4436"/>
       <c r="AX64" s="5503" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY64" s="4438"/>
       <c r="AZ64" s="5504" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA64" s="4440"/>
       <c r="BB64" s="4441" t="n">
@@ -27628,11 +28303,11 @@
       <c r="BJ64" s="4449"/>
       <c r="BK64" s="4450"/>
       <c r="BL64" s="5505" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM64" s="4452"/>
       <c r="BN64" s="5506" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO64" s="4454"/>
       <c r="BP64" s="4455" t="n">
@@ -27656,11 +28331,11 @@
       </c>
       <c r="BY64" s="4464"/>
       <c r="BZ64" s="5507" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA64" s="4466"/>
       <c r="CB64" s="5508" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC64" s="4468"/>
       <c r="CD64" s="4469" t="n">
@@ -27684,7 +28359,7 @@
       </c>
       <c r="CM64" s="4478"/>
       <c r="CN64" s="5509" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO64" s="4480"/>
       <c r="CP64" s="4481"/>
@@ -27714,7 +28389,7 @@
       <c r="M65" s="4499"/>
       <c r="N65" s="4500"/>
       <c r="O65" s="4501" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P65" s="4502"/>
       <c r="Q65" s="4503"/>
@@ -27735,77 +28410,77 @@
       <c r="AB65" s="4514"/>
       <c r="AC65" s="4515"/>
       <c r="AD65" s="4516" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE65" s="4517"/>
       <c r="AF65" s="5510" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG65" s="4519"/>
       <c r="AH65" s="5511" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI65" s="4521"/>
       <c r="AJ65" s="4522" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK65" s="4523"/>
       <c r="AL65" s="4524" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM65" s="4525"/>
       <c r="AN65" s="4526" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO65" s="4527"/>
       <c r="AP65" s="4528" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ65" s="4529"/>
       <c r="AR65" s="4530" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS65" s="4531"/>
       <c r="AT65" s="5512" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU65" s="4533"/>
       <c r="AV65" s="5513" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW65" s="4535"/>
       <c r="AX65" s="5514" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY65" s="4537"/>
       <c r="AZ65" s="5515" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA65" s="4539"/>
       <c r="BB65" s="4540" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC65" s="4541"/>
       <c r="BD65" s="4542" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE65" s="4543"/>
       <c r="BF65" s="4544" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG65" s="4545"/>
       <c r="BH65" s="4546" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI65" s="4547"/>
       <c r="BJ65" s="4548"/>
       <c r="BK65" s="4549"/>
       <c r="BL65" s="5516" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM65" s="4551"/>
       <c r="BN65" s="5517" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO65" s="4553"/>
       <c r="BP65" s="5518" t="s">
@@ -27904,11 +28579,11 @@
       </c>
       <c r="AE66" s="4616"/>
       <c r="AF66" s="5510" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG66" s="4618"/>
       <c r="AH66" s="5511" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI66" s="4620"/>
       <c r="AJ66" s="4621" t="n">
@@ -27936,15 +28611,15 @@
       </c>
       <c r="AU66" s="4632"/>
       <c r="AV66" s="5513" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW66" s="4634"/>
       <c r="AX66" s="5514" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY66" s="4636"/>
       <c r="AZ66" s="5515" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA66" s="4638"/>
       <c r="BB66" s="4639" t="n">
@@ -27964,63 +28639,63 @@
       <c r="BJ66" s="4647"/>
       <c r="BK66" s="4648"/>
       <c r="BL66" s="5516" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM66" s="4650"/>
       <c r="BN66" s="5517" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO66" s="4652"/>
       <c r="BP66" s="5518" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ66" s="4654"/>
       <c r="BR66" s="5519" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS66" s="4656"/>
       <c r="BT66" s="5520" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU66" s="4658"/>
       <c r="BV66" s="5521" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BW66" s="4660"/>
       <c r="BX66" s="5522" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BY66" s="4662"/>
       <c r="BZ66" s="5523" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA66" s="4664"/>
       <c r="CB66" s="5524" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC66" s="4666"/>
       <c r="CD66" s="5525" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE66" s="4668"/>
       <c r="CF66" s="5526" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG66" s="4670"/>
       <c r="CH66" s="5527" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI66" s="4672"/>
       <c r="CJ66" s="5528" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK66" s="4674"/>
       <c r="CL66" s="5529" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CM66" s="4676"/>
       <c r="CN66" s="5530" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO66" s="4678"/>
       <c r="CP66" s="4679"/>
@@ -28050,7 +28725,7 @@
       <c r="M67" s="4697"/>
       <c r="N67" s="4698"/>
       <c r="O67" s="4699" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P67" s="4700"/>
       <c r="Q67" s="4701"/>
@@ -28071,135 +28746,135 @@
       <c r="AB67" s="4712"/>
       <c r="AC67" s="4713"/>
       <c r="AD67" s="4714" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE67" s="4715"/>
       <c r="AF67" s="5531" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG67" s="4717"/>
       <c r="AH67" s="5532" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI67" s="4719"/>
       <c r="AJ67" s="4720" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK67" s="4721"/>
       <c r="AL67" s="4722" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM67" s="4723"/>
       <c r="AN67" s="4724" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO67" s="4725"/>
       <c r="AP67" s="4726" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ67" s="4727"/>
       <c r="AR67" s="4728" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS67" s="4729"/>
       <c r="AT67" s="5533" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU67" s="4731"/>
       <c r="AV67" s="5534" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW67" s="4733"/>
       <c r="AX67" s="5535" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY67" s="4735"/>
       <c r="AZ67" s="5536" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA67" s="4737"/>
       <c r="BB67" s="4738" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC67" s="4739"/>
       <c r="BD67" s="4740" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE67" s="4741"/>
       <c r="BF67" s="4742" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG67" s="4743"/>
       <c r="BH67" s="4744" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI67" s="4745"/>
       <c r="BJ67" s="4746"/>
       <c r="BK67" s="4747"/>
       <c r="BL67" s="5537" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM67" s="4749"/>
       <c r="BN67" s="5538" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO67" s="4751"/>
       <c r="BP67" s="4752" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ67" s="4753"/>
       <c r="BR67" s="4754" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS67" s="4755"/>
       <c r="BT67" s="4756" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU67" s="4757"/>
       <c r="BV67" s="4758" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW67" s="4759"/>
       <c r="BX67" s="4760" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY67" s="4761"/>
       <c r="BZ67" s="5539" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA67" s="4763"/>
       <c r="CB67" s="5540" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC67" s="4765"/>
       <c r="CD67" s="4766" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE67" s="4767"/>
       <c r="CF67" s="4768" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG67" s="4769"/>
       <c r="CH67" s="4770" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI67" s="4771"/>
       <c r="CJ67" s="4772" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK67" s="4773"/>
       <c r="CL67" s="4774" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM67" s="4775"/>
       <c r="CN67" s="5541" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO67" s="4777"/>
       <c r="CP67" s="4778"/>
       <c r="CQ67" s="4779"/>
       <c r="CR67" s="4780" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS67" s="4781"/>
       <c r="CT67" s="4782"/>
@@ -28240,11 +28915,11 @@
       </c>
       <c r="AE68" s="4814"/>
       <c r="AF68" s="5531" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG68" s="4816"/>
       <c r="AH68" s="5532" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI68" s="4818"/>
       <c r="AJ68" s="4819" t="n">
@@ -28272,15 +28947,15 @@
       </c>
       <c r="AU68" s="4830"/>
       <c r="AV68" s="5534" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW68" s="4832"/>
       <c r="AX68" s="5535" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY68" s="4834"/>
       <c r="AZ68" s="5536" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA68" s="4836"/>
       <c r="BB68" s="4837" t="n">
@@ -28300,11 +28975,11 @@
       <c r="BJ68" s="4845"/>
       <c r="BK68" s="4846"/>
       <c r="BL68" s="5537" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM68" s="4848"/>
       <c r="BN68" s="5538" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO68" s="4850"/>
       <c r="BP68" s="4851" t="n">
@@ -28328,11 +29003,11 @@
       </c>
       <c r="BY68" s="4860"/>
       <c r="BZ68" s="5539" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA68" s="4862"/>
       <c r="CB68" s="5540" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC68" s="4864"/>
       <c r="CD68" s="4865" t="n">
@@ -28356,7 +29031,7 @@
       </c>
       <c r="CM68" s="4874"/>
       <c r="CN68" s="5541" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO68" s="4876"/>
       <c r="CP68" s="4877"/>
@@ -28386,7 +29061,7 @@
       <c r="M69" s="4895"/>
       <c r="N69" s="4896"/>
       <c r="O69" s="4897" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P69" s="4898"/>
       <c r="Q69" s="4899"/>
@@ -28407,135 +29082,135 @@
       <c r="AB69" s="4910"/>
       <c r="AC69" s="4911"/>
       <c r="AD69" s="4912" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE69" s="4913"/>
       <c r="AF69" s="5542" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG69" s="4915"/>
       <c r="AH69" s="5543" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI69" s="4917"/>
       <c r="AJ69" s="4918" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK69" s="4919"/>
       <c r="AL69" s="4920" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM69" s="4921"/>
       <c r="AN69" s="4922" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO69" s="4923"/>
       <c r="AP69" s="4924" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ69" s="4925"/>
       <c r="AR69" s="4926" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS69" s="4927"/>
       <c r="AT69" s="5544" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU69" s="4929"/>
       <c r="AV69" s="5545" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW69" s="4931"/>
       <c r="AX69" s="5546" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY69" s="4933"/>
       <c r="AZ69" s="5547" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA69" s="4935"/>
       <c r="BB69" s="4936" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC69" s="4937"/>
       <c r="BD69" s="4938" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE69" s="4939"/>
       <c r="BF69" s="4940" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG69" s="4941"/>
       <c r="BH69" s="4942" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI69" s="4943"/>
       <c r="BJ69" s="4944"/>
       <c r="BK69" s="4945"/>
       <c r="BL69" s="4946" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BM69" s="4947"/>
       <c r="BN69" s="5548" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO69" s="4949"/>
       <c r="BP69" s="4950" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BQ69" s="4951"/>
       <c r="BR69" s="4952" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BS69" s="4953"/>
       <c r="BT69" s="4954" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BU69" s="4955"/>
       <c r="BV69" s="4956" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW69" s="4957"/>
       <c r="BX69" s="4958" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY69" s="4959"/>
       <c r="BZ69" s="5549" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA69" s="4961"/>
       <c r="CB69" s="5550" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC69" s="4963"/>
       <c r="CD69" s="4964" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CE69" s="4965"/>
       <c r="CF69" s="4966" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CG69" s="4967"/>
       <c r="CH69" s="4968" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI69" s="4969"/>
       <c r="CJ69" s="4970" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CK69" s="4971"/>
       <c r="CL69" s="4972" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM69" s="4973"/>
       <c r="CN69" s="5551" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO69" s="4975"/>
       <c r="CP69" s="4976"/>
       <c r="CQ69" s="4977"/>
       <c r="CR69" s="4978" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CS69" s="4979"/>
       <c r="CT69" s="4980"/>
@@ -28576,11 +29251,11 @@
       </c>
       <c r="AE70" s="5012"/>
       <c r="AF70" s="5542" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG70" s="5014"/>
       <c r="AH70" s="5543" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI70" s="5016"/>
       <c r="AJ70" s="5017" t="n">
@@ -28608,15 +29283,15 @@
       </c>
       <c r="AU70" s="5028"/>
       <c r="AV70" s="5545" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW70" s="5030"/>
       <c r="AX70" s="5546" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY70" s="5032"/>
       <c r="AZ70" s="5547" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA70" s="5034"/>
       <c r="BB70" s="5035" t="n">
@@ -28640,7 +29315,7 @@
       </c>
       <c r="BM70" s="5046"/>
       <c r="BN70" s="5548" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO70" s="5048"/>
       <c r="BP70" s="5049" t="n">
@@ -28664,11 +29339,11 @@
       </c>
       <c r="BY70" s="5058"/>
       <c r="BZ70" s="5549" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA70" s="5060"/>
       <c r="CB70" s="5550" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC70" s="5062"/>
       <c r="CD70" s="5063" t="n">
@@ -28692,7 +29367,7 @@
       </c>
       <c r="CM70" s="5072"/>
       <c r="CN70" s="5551" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CO70" s="5074"/>
       <c r="CP70" s="5075"/>
@@ -28722,7 +29397,7 @@
       <c r="M71" s="5093"/>
       <c r="N71" s="5094"/>
       <c r="O71" s="5095" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P71" s="5096"/>
       <c r="Q71" s="5097"/>
@@ -28734,7 +29409,7 @@
       <c r="U71" s="5101"/>
       <c r="V71" s="5102"/>
       <c r="W71" s="5103" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X71" s="5104"/>
       <c r="Y71" s="5105"/>
@@ -28743,19 +29418,19 @@
       <c r="AB71" s="5108"/>
       <c r="AC71" s="5109"/>
       <c r="AD71" s="5110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE71" s="5111"/>
       <c r="AF71" s="5552" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG71" s="5113"/>
       <c r="AH71" s="5553" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI71" s="5115"/>
       <c r="AJ71" s="5116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK71" s="5117"/>
       <c r="AL71" s="5118"/>
@@ -28781,7 +29456,7 @@
       <c r="BF71" s="5138"/>
       <c r="BG71" s="5139"/>
       <c r="BH71" s="5140" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BI71" s="5141"/>
       <c r="BJ71" s="5142"/>
@@ -28819,7 +29494,7 @@
       <c r="CP71" s="5174"/>
       <c r="CQ71" s="5175"/>
       <c r="CR71" s="5176" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CS71" s="5177"/>
       <c r="CT71" s="5178"/>
@@ -28860,11 +29535,11 @@
       </c>
       <c r="AE72" s="5560"/>
       <c r="AF72" s="5561" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG72" s="5560"/>
       <c r="AH72" s="5561" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI72" s="5560"/>
       <c r="AJ72" s="5560" t="n">
@@ -29673,7 +30348,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C80" s="54"/>
       <c r="D80" s="54"/>
@@ -29681,7 +30356,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G80" s="54"/>
       <c r="H80" s="54"/>
@@ -29805,6 +30480,203 @@
       <c r="CS81" s="52"/>
       <c r="CT81" s="52"/>
       <c r="CU81" s="53"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="5567">
+        <v>0.0</v>
+      </c>
+      <c r="B101" t="n" s="5568">
+        <v>1.0</v>
+      </c>
+      <c r="C101" t="n" s="5569">
+        <v>2.0</v>
+      </c>
+      <c r="D101" t="n" s="5570">
+        <v>3.0</v>
+      </c>
+      <c r="E101" t="n" s="5571">
+        <v>4.0</v>
+      </c>
+      <c r="F101" t="n" s="5572">
+        <v>5.0</v>
+      </c>
+      <c r="G101" t="n" s="5573">
+        <v>6.0</v>
+      </c>
+      <c r="H101" t="n" s="5574">
+        <v>7.0</v>
+      </c>
+      <c r="I101" t="n" s="5575">
+        <v>8.0</v>
+      </c>
+      <c r="J101" t="n" s="5576">
+        <v>9.0</v>
+      </c>
+      <c r="K101" t="n" s="5577">
+        <v>10.0</v>
+      </c>
+      <c r="L101" t="n" s="5578">
+        <v>11.0</v>
+      </c>
+      <c r="M101" t="n" s="5579">
+        <v>12.0</v>
+      </c>
+      <c r="N101" t="n" s="5580">
+        <v>13.0</v>
+      </c>
+      <c r="O101" t="n" s="5581">
+        <v>14.0</v>
+      </c>
+      <c r="P101" t="n" s="5582">
+        <v>15.0</v>
+      </c>
+      <c r="Q101" t="n" s="5583">
+        <v>16.0</v>
+      </c>
+      <c r="R101" t="n" s="5584">
+        <v>17.0</v>
+      </c>
+      <c r="S101" t="n" s="5585">
+        <v>18.0</v>
+      </c>
+      <c r="T101" t="n" s="5586">
+        <v>19.0</v>
+      </c>
+      <c r="U101" t="n" s="5587">
+        <v>20.0</v>
+      </c>
+      <c r="V101" t="n" s="5588">
+        <v>21.0</v>
+      </c>
+      <c r="W101" t="n" s="5589">
+        <v>22.0</v>
+      </c>
+      <c r="X101" t="n" s="5590">
+        <v>23.0</v>
+      </c>
+      <c r="Y101" t="n" s="5591">
+        <v>24.0</v>
+      </c>
+      <c r="Z101" t="n" s="5592">
+        <v>25.0</v>
+      </c>
+      <c r="AA101" t="n" s="5593">
+        <v>26.0</v>
+      </c>
+      <c r="AB101" t="n" s="5594">
+        <v>27.0</v>
+      </c>
+      <c r="AC101" t="n" s="5595">
+        <v>28.0</v>
+      </c>
+      <c r="AD101" t="n" s="5596">
+        <v>29.0</v>
+      </c>
+      <c r="AE101" t="n" s="5597">
+        <v>30.0</v>
+      </c>
+      <c r="AF101" t="n" s="5598">
+        <v>31.0</v>
+      </c>
+      <c r="AG101" t="n" s="5599">
+        <v>32.0</v>
+      </c>
+      <c r="AH101" t="n" s="5600">
+        <v>33.0</v>
+      </c>
+      <c r="AI101" t="n" s="5601">
+        <v>34.0</v>
+      </c>
+      <c r="AJ101" t="n" s="5602">
+        <v>35.0</v>
+      </c>
+      <c r="AK101" t="n" s="5603">
+        <v>36.0</v>
+      </c>
+      <c r="AL101" t="n" s="5604">
+        <v>37.0</v>
+      </c>
+      <c r="AM101" t="n" s="5605">
+        <v>38.0</v>
+      </c>
+      <c r="AN101" t="n" s="5606">
+        <v>39.0</v>
+      </c>
+      <c r="AO101" t="n" s="5607">
+        <v>40.0</v>
+      </c>
+      <c r="AP101" t="n" s="5608">
+        <v>41.0</v>
+      </c>
+      <c r="AQ101" t="n" s="5609">
+        <v>42.0</v>
+      </c>
+      <c r="AR101" t="n" s="5610">
+        <v>43.0</v>
+      </c>
+      <c r="AS101" t="n" s="5611">
+        <v>44.0</v>
+      </c>
+      <c r="AT101" t="n" s="5612">
+        <v>45.0</v>
+      </c>
+      <c r="AU101" t="n" s="5613">
+        <v>46.0</v>
+      </c>
+      <c r="AV101" t="n" s="5614">
+        <v>47.0</v>
+      </c>
+      <c r="AW101" t="n" s="5615">
+        <v>48.0</v>
+      </c>
+      <c r="AX101" t="n" s="5616">
+        <v>49.0</v>
+      </c>
+      <c r="AY101" t="n" s="5617">
+        <v>50.0</v>
+      </c>
+      <c r="AZ101" t="n" s="5618">
+        <v>51.0</v>
+      </c>
+      <c r="BA101" t="n" s="5619">
+        <v>52.0</v>
+      </c>
+      <c r="BB101" t="n" s="5620">
+        <v>53.0</v>
+      </c>
+      <c r="BC101" t="n" s="5621">
+        <v>54.0</v>
+      </c>
+      <c r="BD101" t="n" s="5622">
+        <v>55.0</v>
+      </c>
+      <c r="BE101" t="n" s="5623">
+        <v>56.0</v>
+      </c>
+      <c r="BF101" t="n" s="5624">
+        <v>57.0</v>
+      </c>
+      <c r="BG101" t="n" s="5625">
+        <v>58.0</v>
+      </c>
+      <c r="BH101" t="n" s="5626">
+        <v>59.0</v>
+      </c>
+      <c r="BI101" t="n" s="5627">
+        <v>60.0</v>
+      </c>
+      <c r="BJ101" t="n" s="5628">
+        <v>61.0</v>
+      </c>
+      <c r="BK101" t="n" s="5629">
+        <v>62.0</v>
+      </c>
+      <c r="BL101" t="n" s="5630">
+        <v>63.0</v>
+      </c>
+      <c r="BM101" t="n" s="5631">
+        <v>64.0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
